--- a/teaching/traditional_assets/database/data/ireland/ireland_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_bank_money_center.xlsx
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1665</v>
-      </c>
-      <c r="E2">
-        <v>0.0756</v>
+        <v>-0.108</v>
       </c>
       <c r="F2">
-        <v>-0.0723</v>
+        <v>-0.07530000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.007437411725052454</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.00650712833053337</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1406.4</v>
+        <v>-1513.6</v>
       </c>
       <c r="L2">
-        <v>0.207967349835862</v>
+        <v>-0.425228262396404</v>
       </c>
       <c r="M2">
-        <v>776.1</v>
+        <v>27</v>
       </c>
       <c r="N2">
-        <v>0.04870686138533083</v>
+        <v>0.00259927797833935</v>
       </c>
       <c r="O2">
-        <v>0.5518344709897611</v>
+        <v>-0.01783826638477801</v>
       </c>
       <c r="P2">
-        <v>776.1</v>
+        <v>27</v>
       </c>
       <c r="Q2">
-        <v>0.04870686138533083</v>
+        <v>0.00259927797833935</v>
       </c>
       <c r="R2">
-        <v>0.5518344709897611</v>
+        <v>-0.01783826638477801</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>15818.2</v>
+        <v>30165.5</v>
       </c>
       <c r="V2">
-        <v>0.9927262914127564</v>
+        <v>2.904019253910951</v>
       </c>
       <c r="W2">
-        <v>0.04997685819267208</v>
+        <v>-0.05194184525606198</v>
       </c>
       <c r="X2">
-        <v>0.07750887237722855</v>
+        <v>0.08654176508662438</v>
       </c>
       <c r="Y2">
-        <v>-0.02753201418455647</v>
+        <v>-0.1384836103426864</v>
       </c>
       <c r="Z2">
-        <v>0.1680709393757606</v>
+        <v>0.09070315008383577</v>
       </c>
       <c r="AA2">
-        <v>-7.267467379674219e-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05642705135929711</v>
+        <v>0.05143221905562387</v>
       </c>
       <c r="AC2">
-        <v>-0.05840706915086237</v>
+        <v>-0.05143221905562387</v>
       </c>
       <c r="AD2">
-        <v>26402</v>
+        <v>26073.6</v>
       </c>
       <c r="AE2">
-        <v>1029.781202659199</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>27431.7812026592</v>
+        <v>26073.6</v>
       </c>
       <c r="AG2">
-        <v>11613.5812026592</v>
+        <v>-4091.900000000001</v>
       </c>
       <c r="AH2">
-        <v>0.6325659814097604</v>
+        <v>0.7151073335692011</v>
       </c>
       <c r="AI2">
-        <v>0.4808419046829219</v>
+        <v>0.4743768182388804</v>
       </c>
       <c r="AJ2">
-        <v>0.4215810803538023</v>
+        <v>-0.649961878137112</v>
       </c>
       <c r="AK2">
-        <v>0.2816691808720749</v>
+        <v>-0.1650066133298923</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>169.6132596685083</v>
-      </c>
-      <c r="AP2">
-        <v>74.60864192894255</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AIB Group plc (ISE:AIBG)</t>
+          <t>AIB Group plc (ISE:A5G)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.224</v>
+        <v>-0.194</v>
       </c>
       <c r="F3">
-        <v>-0.146</v>
+        <v>-0.0595</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.0004830349245864303</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.0004211345520941044</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>913.7</v>
+        <v>-826</v>
       </c>
       <c r="L3">
-        <v>0.284331725532908</v>
+        <v>-0.5933481790101286</v>
       </c>
       <c r="M3">
-        <v>566.7</v>
+        <v>14.6</v>
       </c>
       <c r="N3">
-        <v>0.05989726461759608</v>
+        <v>0.002615784287377945</v>
       </c>
       <c r="O3">
-        <v>0.620225456933348</v>
+        <v>-0.01767554479418886</v>
       </c>
       <c r="P3">
-        <v>566.7</v>
+        <v>14.6</v>
       </c>
       <c r="Q3">
-        <v>0.05989726461759608</v>
+        <v>0.002615784287377945</v>
       </c>
       <c r="R3">
-        <v>0.620225456933348</v>
+        <v>-0.01767554479418886</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>10813.6</v>
+        <v>17777.4</v>
       </c>
       <c r="V3">
-        <v>1.142941698727434</v>
+        <v>3.185057780166622</v>
       </c>
       <c r="W3">
-        <v>0.05772754267807276</v>
+        <v>-0.05194184525606198</v>
       </c>
       <c r="X3">
-        <v>0.07054538246051686</v>
+        <v>0.08356422632073331</v>
       </c>
       <c r="Y3">
-        <v>-0.0128178397824441</v>
+        <v>-0.1355060715767953</v>
       </c>
       <c r="Z3">
-        <v>0.1725687750752465</v>
+        <v>0.08292924118046538</v>
       </c>
       <c r="AA3">
-        <v>-7.267467379674219e-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05370009702603584</v>
+        <v>0.04966946306528673</v>
       </c>
       <c r="AC3">
-        <v>-0.05377277169983258</v>
+        <v>-0.04966946306528673</v>
       </c>
       <c r="AD3">
-        <v>11697.8</v>
+        <v>11457.3</v>
       </c>
       <c r="AE3">
-        <v>379.7611636507925</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>12077.56116365079</v>
+        <v>11457.3</v>
       </c>
       <c r="AG3">
-        <v>1263.961163650791</v>
+        <v>-6320.100000000002</v>
       </c>
       <c r="AH3">
-        <v>0.56073611067442</v>
+        <v>0.6724241143742516</v>
       </c>
       <c r="AI3">
-        <v>0.4316503905423908</v>
+        <v>0.4250402510776901</v>
       </c>
       <c r="AJ3">
-        <v>0.1178500858275723</v>
+        <v>8.556864337936615</v>
       </c>
       <c r="AK3">
-        <v>0.07363011599261858</v>
+        <v>-0.688584066939772</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>157.2284946236559</v>
-      </c>
-      <c r="AP3">
-        <v>16.98872531788697</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bank Of Ireland Group plc (ISE:BIRG)</t>
+          <t>Bank of Ireland Group plc (ISE:BIRG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,13 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.109</v>
-      </c>
-      <c r="E4">
-        <v>0.0756</v>
+        <v>-0.108</v>
       </c>
       <c r="F4">
-        <v>0.0008899999999999999</v>
+        <v>-0.07530000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,103 +847,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.01599402178370962</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.01204196362326521</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>529.1</v>
+        <v>-637</v>
       </c>
       <c r="L4">
-        <v>0.1707600451831532</v>
+        <v>-0.3498462214411248</v>
       </c>
       <c r="M4">
-        <v>196.9</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.03342840650572137</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3721413721413722</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>196.9</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.03342840650572137</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3721413721413722</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>3733.5</v>
+        <v>10561.6</v>
       </c>
       <c r="V4">
-        <v>0.6338494448405827</v>
+        <v>2.441085378819396</v>
       </c>
       <c r="W4">
-        <v>0.04997685819267208</v>
+        <v>-0.06047257848619193</v>
       </c>
       <c r="X4">
-        <v>0.09540660999950953</v>
+        <v>0.1087529485405322</v>
       </c>
       <c r="Y4">
-        <v>-0.04542975180683746</v>
+        <v>-0.1692255270267241</v>
       </c>
       <c r="Z4">
-        <v>0.1644264883627319</v>
+        <v>0.08850693161711809</v>
       </c>
       <c r="AA4">
-        <v>-0.001980017791565257</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05642705135929711</v>
+        <v>0.05143221905562387</v>
       </c>
       <c r="AC4">
-        <v>-0.05840706915086237</v>
+        <v>-0.05143221905562387</v>
       </c>
       <c r="AD4">
-        <v>13810.9</v>
+        <v>13570.8</v>
       </c>
       <c r="AE4">
-        <v>608.2873824841213</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>14419.18738248412</v>
+        <v>13570.8</v>
       </c>
       <c r="AG4">
-        <v>10685.68738248412</v>
+        <v>3009.199999999999</v>
       </c>
       <c r="AH4">
-        <v>0.7099764808720909</v>
+        <v>0.7582553890509235</v>
       </c>
       <c r="AI4">
-        <v>0.5573217075598078</v>
+        <v>0.5474657501089218</v>
       </c>
       <c r="AJ4">
-        <v>0.6446525085453811</v>
+        <v>0.4102074756672754</v>
       </c>
       <c r="AK4">
-        <v>0.4826681424719078</v>
+        <v>0.2115162931931284</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>191.5520110957004</v>
-      </c>
-      <c r="AP4">
-        <v>148.2064824200294</v>
       </c>
     </row>
     <row r="5">
@@ -980,8 +953,11 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.0883</v>
+      </c>
       <c r="F5">
-        <v>-0.0723</v>
+        <v>-0.156</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,34 +966,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001805301143237971</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001805301143237971</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-36.4</v>
+        <v>-50.6</v>
       </c>
       <c r="L5">
-        <v>-0.08078118064802485</v>
+        <v>-0.1459896133871898</v>
       </c>
       <c r="M5">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N5">
-        <v>0.02145186202162348</v>
+        <v>0.02586566541510221</v>
       </c>
       <c r="O5">
-        <v>-0.3434065934065934</v>
+        <v>-0.2450592885375494</v>
       </c>
       <c r="P5">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="Q5">
-        <v>0.02145186202162348</v>
+        <v>0.02586566541510221</v>
       </c>
       <c r="R5">
-        <v>-0.3434065934065934</v>
+        <v>-0.2450592885375494</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,67 +1002,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1271.1</v>
+        <v>1826.5</v>
       </c>
       <c r="V5">
-        <v>2.181396945254848</v>
+        <v>3.80997079682937</v>
       </c>
       <c r="W5">
-        <v>-0.01534569983136594</v>
+        <v>-0.02236760675448678</v>
       </c>
       <c r="X5">
-        <v>0.07750887237722855</v>
+        <v>0.08654176508662438</v>
       </c>
       <c r="Y5">
-        <v>-0.09285457220859449</v>
+        <v>-0.1089093718411112</v>
       </c>
       <c r="Z5">
-        <v>0.1626284654129173</v>
+        <v>0.1839312247930376</v>
       </c>
       <c r="AA5">
-        <v>0.0002935933545329763</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05983230671931176</v>
+        <v>0.05770162518161664</v>
       </c>
       <c r="AC5">
-        <v>-0.05953871336477879</v>
+        <v>-0.05770162518161664</v>
       </c>
       <c r="AD5">
-        <v>893.3</v>
+        <v>1045.5</v>
       </c>
       <c r="AE5">
-        <v>41.73265652428486</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>935.0326565242848</v>
+        <v>1045.5</v>
       </c>
       <c r="AG5">
-        <v>-336.0673434757151</v>
+        <v>-781</v>
       </c>
       <c r="AH5">
-        <v>0.616072041742566</v>
+        <v>0.68561872909699</v>
       </c>
       <c r="AI5">
-        <v>0.292450614945476</v>
+        <v>0.3247196943814641</v>
       </c>
       <c r="AJ5">
-        <v>-1.362623053296366</v>
+        <v>2.589522546419098</v>
       </c>
       <c r="AK5">
-        <v>-0.1744777766668212</v>
+        <v>-0.560579959804766</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>97.52183406113537</v>
-      </c>
-      <c r="AP5">
-        <v>-36.68857461525274</v>
       </c>
     </row>
   </sheetData>
